--- a/AGA206 Assessment 2 Checklist.xlsx
+++ b/AGA206 Assessment 2 Checklist.xlsx
@@ -470,11 +470,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$27" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$27" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$28" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$28" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
@@ -534,7 +534,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$19" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$19" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="D8" s="8">
         <f>COUNTIFS(J18:J38,TRUE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="D9" s="8">
         <f>K39</f>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2739,15 +2739,15 @@
       <c r="E19" s="7"/>
       <c r="F19" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G19" s="17"/>
       <c r="J19" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" ref="K19:K38" si="1">IF(J19=TRUE,D19,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
@@ -2931,15 +2931,15 @@
       <c r="E27" s="7"/>
       <c r="F27" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G27" s="17"/>
       <c r="J27" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
@@ -2955,15 +2955,15 @@
       <c r="E28" s="7"/>
       <c r="F28" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G28" s="17"/>
       <c r="J28" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
@@ -3209,7 +3209,7 @@
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K39" s="2">
         <f>SUM(K18:K38)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3809,15 +3809,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FCE0292C9A4FC04F944DB4C567412D3A" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3b34ff5296aa9ae667de77f079796ec">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -3931,6 +3922,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3938,14 +3938,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14E3574E-6B93-421F-8C9B-EF2BAE2A1531}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CCBB970-597B-4624-A876-F801260F5C14}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3961,6 +3953,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14E3574E-6B93-421F-8C9B-EF2BAE2A1531}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F4C952-2792-4F13-AAE1-711BCAAD3EBE}">
   <ds:schemaRefs>

--- a/AGA206 Assessment 2 Checklist.xlsx
+++ b/AGA206 Assessment 2 Checklist.xlsx
@@ -470,7 +470,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$27" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$27" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="D8" s="8">
         <f>COUNTIFS(J18:J38,TRUE)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="D9" s="8">
         <f>K39</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2931,15 +2931,15 @@
       <c r="E27" s="7"/>
       <c r="F27" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Done</v>
+        <v>To Be Done</v>
       </c>
       <c r="G27" s="17"/>
       <c r="J27" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
@@ -3209,7 +3209,7 @@
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K39" s="2">
         <f>SUM(K18:K38)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3809,6 +3809,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FCE0292C9A4FC04F944DB4C567412D3A" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3b34ff5296aa9ae667de77f079796ec">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -3922,15 +3931,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3938,6 +3938,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14E3574E-6B93-421F-8C9B-EF2BAE2A1531}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CCBB970-597B-4624-A876-F801260F5C14}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3953,14 +3961,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14E3574E-6B93-421F-8C9B-EF2BAE2A1531}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F4C952-2792-4F13-AAE1-711BCAAD3EBE}">
   <ds:schemaRefs>
